--- a/xlsx/种族隔离_intext.xlsx
+++ b/xlsx/种族隔离_intext.xlsx
@@ -29,7 +29,7 @@
     <t>种族</t>
   </si>
   <si>
-    <t>政策_政策_美國_种族隔离</t>
+    <t>政策_政策_美国_种族隔离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>種族歧視</t>
+    <t>种族歧视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E7%89%86</t>
   </si>
   <si>
-    <t>隔離牆</t>
+    <t>隔离墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%B7%B4%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>以巴問題</t>
+    <t>以巴问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB%E5%88%B6%E5%BA%A6</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E4%BD%86%E5%B9%B3%E7%AD%89</t>
   </si>
   <si>
-    <t>隔離但平等</t>
+    <t>隔离但平等</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>耶路撒冷計劃</t>
+    <t>耶路撒冷计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%96%A9%E7%BE%A4%E7%9C%BE%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>阿克薩群眾起義</t>
+    <t>阿克萨群众起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>

--- a/xlsx/种族隔离_intext.xlsx
+++ b/xlsx/种族隔离_intext.xlsx
@@ -15,195 +15,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>种族隔离</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>体育运动_体育运动_种族隔离</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E9%9A%94%E7%A6%BB</t>
+  </si>
+  <si>
+    <t>平等隔离</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
+  </si>
+  <si>
+    <t>種族歧視</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>南非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>澳大利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
+  </si>
+  <si>
+    <t>津巴布韦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>印尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>斐济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E7%89%86</t>
+  </si>
+  <si>
+    <t>隔離牆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%B7%B4%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>以巴問題</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>南非种族隔离制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%89K%E5%85%9A</t>
+  </si>
+  <si>
+    <t>三K党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E4%BD%86%E5%B9%B3%E7%AD%89</t>
+  </si>
+  <si>
+    <t>隔離但平等</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>美国民权运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%BE%B3%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>白澳政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E6%8E%92%E5%8D%8E%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>印尼排华事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9C%9F%E8%91%97</t>
+  </si>
+  <si>
+    <t>马来西亚土著</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E4%B8%80%E4%B8%89%E4%BA%8B%E4%BB%B6</t>
+  </si>
+  <si>
+    <t>五一三事件</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%97%E6%B0%91%E4%B8%8D%E9%80%9A%E5%A9%9A</t>
+  </si>
+  <si>
+    <t>旗民不通婚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E5%A7%93%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>种姓制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7%E8%A8%88%E5%8A%83</t>
+  </si>
+  <si>
+    <t>耶路撒冷計劃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%96%A9%E7%BE%A4%E7%9C%BE%E8%B5%B7%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>阿克薩群眾起義</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>權威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F</t>
-  </si>
-  <si>
-    <t>种族</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_种族隔离</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E9%9A%94%E7%A6%BB</t>
-  </si>
-  <si>
-    <t>平等隔离</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
-  </si>
-  <si>
-    <t>種族歧視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>印尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E7%89%86</t>
-  </si>
-  <si>
-    <t>隔離牆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%B7%B4%E5%95%8F%E9%A1%8C</t>
-  </si>
-  <si>
-    <t>以巴問題</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>南非种族隔离制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89K%E5%85%9A</t>
-  </si>
-  <si>
-    <t>三K党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9A%94%E9%9B%A2%E4%BD%86%E5%B9%B3%E7%AD%89</t>
-  </si>
-  <si>
-    <t>隔離但平等</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E6%9D%83%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>美国民权运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E6%BE%B3%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>白澳政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC%E6%8E%92%E5%8D%8E%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>印尼排华事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A%E5%9C%9F%E8%91%97</t>
-  </si>
-  <si>
-    <t>马来西亚土著</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E4%B8%80%E4%B8%89%E4%BA%8B%E4%BB%B6</t>
-  </si>
-  <si>
-    <t>五一三事件</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%97%E6%B0%91%E4%B8%8D%E9%80%9A%E5%A9%9A</t>
-  </si>
-  <si>
-    <t>旗民不通婚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E5%A7%93%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>种姓制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E8%B7%AF%E6%92%92%E5%86%B7%E8%A8%88%E5%8A%83</t>
-  </si>
-  <si>
-    <t>耶路撒冷計劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%96%A9%E7%BE%A4%E7%9C%BE%E8%B5%B7%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>阿克薩群眾起義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -552,7 +561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -641,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -670,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -699,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -728,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -757,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -786,7 +795,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -815,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -844,7 +853,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -873,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -902,7 +911,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -931,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -960,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -989,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1018,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1047,7 +1056,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1076,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1105,7 +1114,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1134,7 +1143,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1163,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1192,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1221,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1250,7 +1259,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1279,7 +1288,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1308,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1337,7 +1346,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1366,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1395,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1424,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1453,7 +1462,65 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
